--- a/Team5_A1_Eval.xlsx
+++ b/Team5_A1_Eval.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOANGTAN\Desktop\Team5_A1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547324DB-94BE-4EFF-A272-9C9C7CC849AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluate" sheetId="1" r:id="rId1"/>
@@ -129,16 +128,16 @@
     <t>Lê Chí Huy</t>
   </si>
   <si>
-    <t>Bài tập nhóm Tuần 1</t>
-  </si>
-  <si>
     <t>Quản lý dự án phần mềm</t>
+  </si>
+  <si>
+    <t>Bài tập nhóm Tuần 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -730,16 +729,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -777,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="16"/>
@@ -798,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="17"/>
